--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value693.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value693.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
+        <v>1.188222646713257</v>
+      </c>
+      <c r="B1">
+        <v>1.307642340660095</v>
+      </c>
+      <c r="C1">
+        <v>1.553058981895447</v>
+      </c>
+      <c r="D1">
+        <v>2.722550630569458</v>
+      </c>
+      <c r="E1">
         <v>-1</v>
-      </c>
-      <c r="B1">
-        <v>0.6326372023388573</v>
-      </c>
-      <c r="C1">
-        <v>0.2008682241035108</v>
-      </c>
-      <c r="D1">
-        <v>0.1420950814226532</v>
-      </c>
-      <c r="E1">
-        <v>0.1214111659431094</v>
       </c>
     </row>
   </sheetData>
